--- a/data/input/absenteeism_data_47.xlsx
+++ b/data/input/absenteeism_data_47.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>57663</v>
+        <v>13987</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juan Nogueira</t>
+          <t>Lucas Gabriel da Costa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45106</v>
+        <v>45080</v>
       </c>
       <c r="G2" t="n">
-        <v>8809.58</v>
+        <v>3168.22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>58229</v>
+        <v>56491</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Guilherme Pires</t>
+          <t>Diogo da Conceição</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,51 +523,51 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45100</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>7876.05</v>
+        <v>10995.94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>69410</v>
+        <v>36193</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vitor Gabriel Ribeiro</t>
+          <t>Thiago das Neves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45100</v>
+        <v>45087</v>
       </c>
       <c r="G4" t="n">
-        <v>9222.76</v>
+        <v>4106.9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14420</v>
+        <v>49609</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sr. Vitor Gabriel Pereira</t>
+          <t>Valentina Ribeiro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,171 +577,171 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45092</v>
+        <v>45090</v>
       </c>
       <c r="G5" t="n">
-        <v>4289.19</v>
+        <v>4454.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>81029</v>
+        <v>58785</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Leandro Peixoto</t>
+          <t>Luiz Henrique Duarte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45091</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>8267.190000000001</v>
+        <v>8180.51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>19428</v>
+        <v>18205</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Emanuella da Rosa</t>
+          <t>Theo Sales</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45087</v>
+        <v>45082</v>
       </c>
       <c r="G7" t="n">
-        <v>9625.48</v>
+        <v>8890.040000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4669</v>
+        <v>7554</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Miguel Aragão</t>
+          <t>João Guilherme Gonçalves</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45096</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>3830.1</v>
+        <v>6954.55</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>69258</v>
+        <v>949</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Maitê Ferreira</t>
+          <t>Enrico Gonçalves</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45089</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>2914.39</v>
+        <v>11885.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>67898</v>
+        <v>44728</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Stella Melo</t>
+          <t>Nathan da Luz</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45081</v>
       </c>
       <c r="G10" t="n">
-        <v>8039.18</v>
+        <v>12210.32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>77629</v>
+        <v>97878</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Isabelly Martins</t>
+          <t>Leandro da Rosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45080</v>
+        <v>45089</v>
       </c>
       <c r="G11" t="n">
-        <v>10469.03</v>
+        <v>3291.05</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_47.xlsx
+++ b/data/input/absenteeism_data_47.xlsx
@@ -476,98 +476,98 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13987</v>
+        <v>33255</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lucas Gabriel da Costa</t>
+          <t>Lucas Gabriel da Rocha</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E2" t="n">
         <v>2</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45080</v>
+        <v>45078</v>
       </c>
       <c r="G2" t="n">
-        <v>3168.22</v>
+        <v>5898.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>56491</v>
+        <v>48595</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Diogo da Conceição</t>
+          <t>João Vitor da Cruz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45082</v>
+        <v>45080</v>
       </c>
       <c r="G3" t="n">
-        <v>10995.94</v>
+        <v>7353.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>36193</v>
+        <v>62325</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Thiago das Neves</t>
+          <t>Davi Cunha</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45087</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>4106.9</v>
+        <v>8403.290000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>49609</v>
+        <v>33925</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Valentina Ribeiro</t>
+          <t>Noah Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,84 +577,84 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45090</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>4454.77</v>
+        <v>10555.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>58785</v>
+        <v>1341</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Henrique Duarte</t>
+          <t>Srta. Maria Fernanda Monteiro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45106</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>8180.51</v>
+        <v>4953.74</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18205</v>
+        <v>23185</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Theo Sales</t>
+          <t>Ana Lívia Duarte</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45082</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>8890.040000000001</v>
+        <v>6817.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7554</v>
+        <v>86590</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>João Guilherme Gonçalves</t>
+          <t>Maitê Silva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -664,89 +664,89 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45082</v>
+        <v>45091</v>
       </c>
       <c r="G8" t="n">
-        <v>6954.55</v>
+        <v>11431.69</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>949</v>
+        <v>62762</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Enrico Gonçalves</t>
+          <t>Vitória Costela</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>1</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45106</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>11885.06</v>
+        <v>5035.54</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>44728</v>
+        <v>10912</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nathan da Luz</t>
+          <t>Maysa Moraes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="G10" t="n">
-        <v>12210.32</v>
+        <v>6801.99</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>97878</v>
+        <v>14669</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Leandro da Rosa</t>
+          <t>Helena Porto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45089</v>
+        <v>45106</v>
       </c>
       <c r="G11" t="n">
-        <v>3291.05</v>
+        <v>8213.620000000001</v>
       </c>
     </row>
   </sheetData>
